--- a/DOM_Banner/output/dept_banner/Umbreen Rozell_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Umbreen Rozell_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,356 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Minh Phan, Paul Antoine El Tomb, Tariq Khreis, Tobias Meißner, Rachel Elsey, Bing Xu, Junaid Arshad, Umbreen Arshad Rozell, Elysia Tjong, Vaia Florou, Sonam Puri, Arsalan Khan, Dorothy A. Rhoades, Raid Aljumaily, Adanma Ayanambakkam, Anthony David Burtman, Mark Bigbey, Mats Sjöquist, Casey Williams, Abdul Rafeh Naqash</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379283613</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Pan tumor outcomes to immune checkpoint inhibitors in patients of Native American origin in the United States: The multicenter POINT-US study.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5029131559", "https://openalex.org/A5033960460", "https://openalex.org/A5081900079", "https://openalex.org/A5030851673", "https://openalex.org/A5006940933", "https://openalex.org/A5025530232", "https://openalex.org/A5061555101", "https://openalex.org/A5092083797", "https://openalex.org/A5006802706", "https://openalex.org/A5043773782", "https://openalex.org/A5059588535", "https://openalex.org/A5066390121", "https://openalex.org/A5089367314", "https://openalex.org/A5046836745", 
-"https://openalex.org/A5079932513", "https://openalex.org/A5004187439", "https://openalex.org/A5092083796", "https://openalex.org/A5080666863", "https://openalex.org/A5042403689", "https://openalex.org/A5090621600"), au_display_name = c("Minh Phan", "Paul Antoine El Tomb", "Tariq Khreis", "Tobias Meißner", "Rachel Elsey", "Bing Xu", "Junaid Arshad", "Umbreen Arshad Rozell", "Elysia Tjong", "Vaia Florou", "Sonam Puri", "Arsalan Khan", "Dorothy A. Rhoades", "Raid Aljumaily", "Adanma Ayanambakkam", 
-"Anthony David Burtman", "Mark Bigbey", "Mats Sjöquist", "Casey Williams", "Abdul Rafeh Naqash"), au_orcid = c(NA, NA, NA, "https://orcid.org/0000-0002-9680-7153", NA, "https://orcid.org/0000-0003-2819-6685", NA, NA, NA, "https://orcid.org/0000-0001-5558-753X", "https://orcid.org/0000-0001-8068-5051", "https://orcid.org/0009-0007-6106-6088", "https://orcid.org/0000-0002-4031-3576", NA, NA, NA, NA, NA, "https://orcid.org/0000-0002-4667-7944", "https://orcid.org/0000-0001-7622-720X"), author_position = c("first", 
-"middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Stephenson Cancer Center, University of Oklahoma Health Sciences Center, Oklahoma City, OK", "Stephenson Cancer Center, University of Oklahoma Health Sciences Center, Oklahoma City, OK", "Stephenson Cancer Center, University of Oklahoma Health Sciences Center, Oklahoma City, OK", "Avera Cancer Institute, Sioux Falls, SD", 
-"Avera Cancer Institute, Sioux Falls, SD", "Avera Cancer Institute, Sioux Falls, SD", "The University of Arizona, Tucson, AZ", "The University of Arizona, Tucson, AZ", "The University of Arizona, Tucson, AZ", "Huntsman Cancer Institute, University of Utah, Salt Lake City, UT", "Huntsman Cancer Institute, University of Utah, Salt Lake City, UT", "University of Oklahoma Health Sciences Center, Oklahoma City, OK", "University of Oklahoma Health Sciences Center, Oklahoma City, OK", "Stephenson Cancer Center, University of Oklahoma Health Sciences Center, Oklahoma City, OK", 
-"Stephenson Cancer Center, University of Oklahoma Health Sciences Center, Oklahoma City, OK", "The University of Arizona, Tucson, AZ", "The University of Arizona, Tucson, AZ", "The University of Arizona, Tucson, AZ", "Avera Cancer Institute, Sioux Falls, SD", "Stephenson Cancer Center, University of Oklahoma Health Sciences, Oklahoma City, OK"), institution_id = c("https://openalex.org/I49332381", "https://openalex.org/I49332381", "https://openalex.org/I49332381", "https://openalex.org/I2799572201", 
-"https://openalex.org/I2799572201", "https://openalex.org/I2799572201", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I2801159745", "https://openalex.org/I2801159745", "https://openalex.org/I49332381", "https://openalex.org/I49332381", "https://openalex.org/I49332381", "https://openalex.org/I49332381", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I2799572201", 
-"https://openalex.org/I49332381"), institution_display_name = c("University of Oklahoma Health Sciences Center", "University of Oklahoma Health Sciences Center", "University of Oklahoma Health Sciences Center", "Avera Health", "Avera Health", "Avera Health", "University of Arizona", "University of Arizona", "University of Arizona", "Huntsman Cancer Institute", "Huntsman Cancer Institute", "University of Oklahoma Health Sciences Center", "University of Oklahoma Health Sciences Center", "University of Oklahoma Health Sciences Center", 
-"University of Oklahoma Health Sciences Center", "University of Arizona", "University of Arizona", "University of Arizona", "Avera Health", "University of Oklahoma Health Sciences Center"), institution_ror = c("https://ror.org/0457zbj98", "https://ror.org/0457zbj98", "https://ror.org/0457zbj98", "https://ror.org/05nter171", "https://ror.org/05nter171", "https://ror.org/05nter171", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03v7tx966", "https://ror.org/03v7tx966", 
-"https://ror.org/0457zbj98", "https://ror.org/0457zbj98", "https://ror.org/0457zbj98", "https://ror.org/0457zbj98", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/05nter171", "https://ror.org/0457zbj98"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("healthcare", "healthcare", "healthcare", "healthcare", "healthcare", 
-"healthcare", "education", "education", "education", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "education", "education", "education", "healthcare", "healthcare"), institution_lineage = c("https://openalex.org/I49332381", "https://openalex.org/I49332381", "https://openalex.org/I49332381", "https://openalex.org/I2799572201", "https://openalex.org/I2799572201", "https://openalex.org/I2799572201", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I2801159745, https://openalex.org/I4210148268", "https://openalex.org/I2801159745, https://openalex.org/I4210148268", "https://openalex.org/I49332381", "https://openalex.org/I49332381", "https://openalex.org/I49332381", "https://openalex.org/I49332381", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I2799572201", "https://openalex.org/I49332381"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2654 Background: Despite receiving identical standard-of-care therapies, epidemiological data indicate that Native American (NA) patients (pts) with cancer have worse outcomes vs. White pts. ICIs have revolutionized the treatment of certain tumors, however pts from certain racial and ethnic groups, including NA pts, are underrepresented in ICI trials. Methods: This is an ongoing multi-center retrospective study across four U.S. academic cancer centers that serve a high volume of NA pts. We included pts with self-reported race as NA in electronic medical records. We evaluated clinical outcomes and immune-related adverse events (irAEs) of 71 NA pts age ≥18 years with various solid tumors treated with ICI-based therapies between 2015 to 2021. IrAEs were defined based on the Common Terminology Criteria for Adverse Events (version 5.0) or RECIST 1.1. as available, was used to determine objective response rate (ORR). Kaplan Meier log-rank method was used to generate median progression free survival (mPFS) and median overall survival (mOS). Results: Median age (range) at ICI initiation was 62 (24 -81) years; 43 (60%) were males, with 26 (37%) females, 2 pts with missing gender data. 55 (77%) of pts had ECOG performance status 0. The distribution of top six tumor types included (number of pts [%]): non-small cell lung cancer (NSCLC) 22 (31%), renal cell carcinoma (RCC) 16 (23%), melanoma 7 (10%), small cell lung cancer (SCLC) 4 (6%), hepatocellular carcinoma 4(6%); colorectal adenocarcinoma, head and neck squamous cell carcinoma, cervical squamous cell carcinoma each had 3 pts (4%). Most pts (51 [72%]) received single agent ICI, 12 (17%) had dual ICI, 4 (6%) had chemotherapy+ ICI, and remaining had either ICI + tyrosine kinase inhibitor or ICI + study drug (4 [6%]). 55% of pts with NSCLC underwent tumor next-generation sequencing (NGS) while &amp;lt;30% of patients with renal cell carcinoma or melanoma had tumor NGS performed. Among 71 pts, 17 (24%) had any grade (G) irAE, 4 (6%) were reported to be ≥G3. The median time to irAE onset was 18 weeks and 3 (4%) pts discontinued ICI due to irAEs. The mPFS, mOS and ORR for the most frequent tumors (N ≥5) are shown. Conclusions: Although limited by sample size, our emerging data provides new insights into ICI efficacy and irAEs in NA pts that have been unknown to date. To our knowledge, this is the first and only attempt to date evaluating ICI outcomes in NA pts. Updated clinical data and tumor genomics will be presented at the meeting. [Table: see text]</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S15137598</t>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.2654</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0732-183X</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.2654</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2654</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2654</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>16_suppl</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4379283613</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4379283613", doi = "https://doi.org/10.1200/jco.2023.41.16_suppl.2654")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.2654</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2397703782", "https://openalex.org/W2314142019", "https://openalex.org/W2586600986", "https://openalex.org/W2412903152", "https://openalex.org/W2888184688", "https://openalex.org/W2928025315", "https://openalex.org/W2530830155", "https://openalex.org/W2081371466", "https://openalex.org/W2971476881", "https://openalex.org/W2362434115")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Umbreen Rozell_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Umbreen Rozell_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Stephenson Cancer Center, University of Oklahoma Health Sciences Center, Oklahoma City, OK; Stephenson Cancer Center, University of Oklahoma Health Sciences Center, Oklahoma City, OK; Stephenson Cancer Center, University of Oklahoma Health Sciences Center, Oklahoma City, OK; Avera Cancer Institute, Sioux Falls, SD; Avera Cancer Institute, Sioux Falls, SD; Avera Cancer Institute, Sioux Falls, SD; The University of Arizona, Tucson, AZ; The University of Arizona, Tucson, AZ; The University of Arizona, Tucson, AZ; Huntsman Cancer Institute, University of Utah, Salt Lake City, UT; Huntsman Cancer Institute, University of Utah, Salt Lake City, UT; University of Oklahoma Health Sciences Center, Oklahoma City, OK; University of Oklahoma Health Sciences Center, Oklahoma City, OK; Stephenson Cancer Center, University of Oklahoma Health Sciences Center, Oklahoma City, OK; Stephenson Cancer Center, University of Oklahoma Health Sciences Center, Oklahoma City, OK; The University of Arizona, Tucson, AZ; The University of Arizona, Tucson, AZ; The University of Arizona, Tucson, AZ; Avera Cancer Institute, Sioux Falls, SD; Stephenson Cancer Center, University of Oklahoma Health Sciences, Oklahoma City, OK</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379283613</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Pan tumor outcomes to immune checkpoint inhibitors in patients of Native American origin in the United States: The multicenter POINT-US study.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.2654</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.2654</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
